--- a/dados_historicos/dados_geral/preco_bezerro_brl.xlsx
+++ b/dados_historicos/dados_geral/preco_bezerro_brl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cliente HT\Desktop\programas python\PRODUÇÃO DE GADO\dados_historicos\dados_geral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66AEE8F5-8997-40D3-9830-8B6861B6BF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C17BF1B7-6358-4DFA-A519-2058BF7692D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{FDCE8E23-FA71-45DB-A82B-FD73EEA21BBB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{59BF874F-FE04-4434-BF97-2CB4332B6FD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan 1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6374" uniqueCount="6374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6381" uniqueCount="6381">
   <si>
     <t>INDICADOR DO BEZERRO CEPEA/ESALQ - MATO GROSSO DO SUL</t>
   </si>
@@ -19143,6 +19143,27 @@
   </si>
   <si>
     <t>12/09/2025</t>
+  </si>
+  <si>
+    <t>15/09/2025</t>
+  </si>
+  <si>
+    <t>16/09/2025</t>
+  </si>
+  <si>
+    <t>17/09/2025</t>
+  </si>
+  <si>
+    <t>18/09/2025</t>
+  </si>
+  <si>
+    <t>19/09/2025</t>
+  </si>
+  <si>
+    <t>22/09/2025</t>
+  </si>
+  <si>
+    <t>23/09/2025</t>
   </si>
 </sst>
 </file>
@@ -19582,11 +19603,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADD91E-8134-4D3B-B6EE-28BE3C8B2471}">
-  <dimension ref="A1:J6373"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75ED3B38-E86D-402F-93ED-3BD44ECA497E}">
+  <dimension ref="A1:J6380"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6373"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -89704,6 +89725,83 @@
       </c>
       <c r="C6373" s="2">
         <v>539.9</v>
+      </c>
+    </row>
+    <row r="6374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6374" t="s">
+        <v>6374</v>
+      </c>
+      <c r="B6374" s="2">
+        <v>2910.44</v>
+      </c>
+      <c r="C6374" s="2">
+        <v>547.28</v>
+      </c>
+    </row>
+    <row r="6375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6375" t="s">
+        <v>6375</v>
+      </c>
+      <c r="B6375" s="2">
+        <v>2934.96</v>
+      </c>
+      <c r="C6375" s="2">
+        <v>553.97</v>
+      </c>
+    </row>
+    <row r="6376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6376" t="s">
+        <v>6376</v>
+      </c>
+      <c r="B6376" s="2">
+        <v>2943.4</v>
+      </c>
+      <c r="C6376" s="2">
+        <v>555.46</v>
+      </c>
+    </row>
+    <row r="6377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6377" t="s">
+        <v>6377</v>
+      </c>
+      <c r="B6377" s="2">
+        <v>2954.79</v>
+      </c>
+      <c r="C6377" s="2">
+        <v>556.46</v>
+      </c>
+    </row>
+    <row r="6378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6378" t="s">
+        <v>6378</v>
+      </c>
+      <c r="B6378" s="2">
+        <v>2950.21</v>
+      </c>
+      <c r="C6378" s="2">
+        <v>554.54999999999995</v>
+      </c>
+    </row>
+    <row r="6379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6379" t="s">
+        <v>6379</v>
+      </c>
+      <c r="B6379" s="2">
+        <v>2963.22</v>
+      </c>
+      <c r="C6379" s="2">
+        <v>555.22</v>
+      </c>
+    </row>
+    <row r="6380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6380" t="s">
+        <v>6380</v>
+      </c>
+      <c r="B6380" s="2">
+        <v>2970.59</v>
+      </c>
+      <c r="C6380" s="2">
+        <v>562.08000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -89720,7 +89818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA39410C-538F-4415-8233-AFA46154E81E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF8CDA0-10FF-4B4D-BDEF-596968FF1B64}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0"/>
